--- a/contratos/contratos-5-2016.xlsx
+++ b/contratos/contratos-5-2016.xlsx
@@ -691,7 +691,7 @@
     <t>HORISBERGER GLORIA ALCIRA</t>
   </si>
   <si>
-    <t>MONROY, AGUSTIN ALEJANDRO</t>
+    <t>MONROY. AGUSTIN ALEJANDRO</t>
   </si>
   <si>
     <t>F.J.M. S.A.</t>
@@ -715,7 +715,7 @@
     <t>BONFANTINO LAURA</t>
   </si>
   <si>
-    <t>MARSICO GUILLERMO MIGUEL, MARSICO JUAN EDUARDO</t>
+    <t>MARSICO GUILLERMO MIGUEL. MARSICO JUAN EDUARDO</t>
   </si>
   <si>
     <t>CIPAR INGENIERIA S.R.L.</t>
@@ -748,7 +748,7 @@
     <t>SALIVA PABLO JAVIER</t>
   </si>
   <si>
-    <t>BOFFELLI, MARIA INES</t>
+    <t>BOFFELLI. MARIA INES</t>
   </si>
   <si>
     <t>CHAREUN EDUARDO ROGELIO</t>
@@ -868,7 +868,7 @@
     <t>COLOMBO DANIEL ROBERTO</t>
   </si>
   <si>
-    <t>ALBIZZATTI, PABLO MARTIN Y FULINI, SERGIO RUBEN</t>
+    <t>ALBIZZATTI. PABLO MARTIN Y FULINI. SERGIO RUBEN</t>
   </si>
   <si>
     <t>ALMARA ROBERTO ALMILCAR</t>
@@ -886,7 +886,7 @@
     <t>REYMUNDO EDUARDO JORGE</t>
   </si>
   <si>
-    <t>SCHAB DARIO, PEROTTI XAVIER, BENINCA MATIAS S.H.</t>
+    <t>SCHAB DARIO. PEROTTI XAVIER. BENINCA MATIAS SH</t>
   </si>
   <si>
     <t>TOMBA HERMANOS S.R.L.</t>
@@ -1318,475 +1318,475 @@
     <t>58</t>
   </si>
   <si>
-    <t>1.800,00</t>
-  </si>
-  <si>
-    <t>13.480,00</t>
-  </si>
-  <si>
-    <t>5.300,00</t>
-  </si>
-  <si>
-    <t>272.000,00</t>
-  </si>
-  <si>
-    <t>300,00</t>
-  </si>
-  <si>
-    <t>1.530,40</t>
-  </si>
-  <si>
-    <t>154.000,00</t>
-  </si>
-  <si>
-    <t>6.874,00</t>
-  </si>
-  <si>
-    <t>8.608,88</t>
-  </si>
-  <si>
-    <t>313.685,39</t>
-  </si>
-  <si>
-    <t>249.386,73</t>
-  </si>
-  <si>
-    <t>30.066,56</t>
-  </si>
-  <si>
-    <t>19,00</t>
-  </si>
-  <si>
-    <t>154.729,23</t>
-  </si>
-  <si>
-    <t>10.162,50</t>
-  </si>
-  <si>
-    <t>18.791,70</t>
-  </si>
-  <si>
-    <t>9.539,00</t>
-  </si>
-  <si>
-    <t>13.834,23</t>
-  </si>
-  <si>
-    <t>4.822,00</t>
-  </si>
-  <si>
-    <t>21.773,01</t>
-  </si>
-  <si>
-    <t>1.000,00</t>
-  </si>
-  <si>
-    <t>553,00</t>
-  </si>
-  <si>
-    <t>11.273,33</t>
-  </si>
-  <si>
-    <t>1.070,00</t>
-  </si>
-  <si>
-    <t>3.931,37</t>
-  </si>
-  <si>
-    <t>1.781,29</t>
-  </si>
-  <si>
-    <t>1.589,38</t>
-  </si>
-  <si>
-    <t>696,00</t>
-  </si>
-  <si>
-    <t>11.698,59</t>
-  </si>
-  <si>
-    <t>8.620,20</t>
-  </si>
-  <si>
-    <t>1.760,00</t>
-  </si>
-  <si>
-    <t>4.074,20</t>
-  </si>
-  <si>
-    <t>27,90</t>
-  </si>
-  <si>
-    <t>12.660,00</t>
-  </si>
-  <si>
-    <t>7.902,02</t>
-  </si>
-  <si>
-    <t>1.258,30</t>
-  </si>
-  <si>
-    <t>4.342,00</t>
-  </si>
-  <si>
-    <t>2.695,00</t>
-  </si>
-  <si>
-    <t>654,70</t>
-  </si>
-  <si>
-    <t>1.133,50</t>
-  </si>
-  <si>
-    <t>1.940,00</t>
-  </si>
-  <si>
-    <t>15.615,00</t>
-  </si>
-  <si>
-    <t>3.900,00</t>
-  </si>
-  <si>
-    <t>6.849,00</t>
-  </si>
-  <si>
-    <t>810,00</t>
-  </si>
-  <si>
-    <t>219.948,00</t>
-  </si>
-  <si>
-    <t>3.488,95</t>
-  </si>
-  <si>
-    <t>1.339,50</t>
-  </si>
-  <si>
-    <t>280,00</t>
-  </si>
-  <si>
-    <t>4.982,00</t>
-  </si>
-  <si>
-    <t>490,00</t>
-  </si>
-  <si>
-    <t>14.700,00</t>
-  </si>
-  <si>
-    <t>5.832,00</t>
-  </si>
-  <si>
-    <t>17.990,00</t>
-  </si>
-  <si>
-    <t>1.100,00</t>
-  </si>
-  <si>
-    <t>2.130,00</t>
-  </si>
-  <si>
-    <t>11.400,00</t>
-  </si>
-  <si>
-    <t>1.250,00</t>
-  </si>
-  <si>
-    <t>5.227,00</t>
-  </si>
-  <si>
-    <t>6.000,00</t>
-  </si>
-  <si>
-    <t>9.483,54</t>
-  </si>
-  <si>
-    <t>14,10</t>
-  </si>
-  <si>
-    <t>415.230,93</t>
-  </si>
-  <si>
-    <t>53.261,49</t>
-  </si>
-  <si>
-    <t>33.150,00</t>
-  </si>
-  <si>
-    <t>15,95</t>
-  </si>
-  <si>
-    <t>59,99</t>
-  </si>
-  <si>
-    <t>2.880,00</t>
-  </si>
-  <si>
-    <t>1.200,00</t>
-  </si>
-  <si>
-    <t>53,00</t>
-  </si>
-  <si>
-    <t>14.836,00</t>
-  </si>
-  <si>
-    <t>29.985,40</t>
-  </si>
-  <si>
-    <t>29.696,00</t>
-  </si>
-  <si>
-    <t>26.894,00</t>
-  </si>
-  <si>
-    <t>18.012,00</t>
-  </si>
-  <si>
-    <t>110,00</t>
-  </si>
-  <si>
-    <t>11.985,40</t>
-  </si>
-  <si>
-    <t>2.427,00</t>
-  </si>
-  <si>
-    <t>9.184,00</t>
-  </si>
-  <si>
-    <t>30.898,22</t>
-  </si>
-  <si>
-    <t>7.444,90</t>
-  </si>
-  <si>
-    <t>1.296,00</t>
-  </si>
-  <si>
-    <t>611,76</t>
-  </si>
-  <si>
-    <t>3.410,50</t>
-  </si>
-  <si>
-    <t>2.226,60</t>
-  </si>
-  <si>
-    <t>350,00</t>
-  </si>
-  <si>
-    <t>229,24</t>
-  </si>
-  <si>
-    <t>160,00</t>
-  </si>
-  <si>
-    <t>1.380,00</t>
-  </si>
-  <si>
-    <t>1.600,00</t>
-  </si>
-  <si>
-    <t>3.124,00</t>
-  </si>
-  <si>
-    <t>22.650,00</t>
-  </si>
-  <si>
-    <t>50.010,00</t>
-  </si>
-  <si>
-    <t>6.840,00</t>
-  </si>
-  <si>
-    <t>700,00</t>
-  </si>
-  <si>
-    <t>3.500,00</t>
-  </si>
-  <si>
-    <t>60.748,24</t>
-  </si>
-  <si>
-    <t>973,72</t>
-  </si>
-  <si>
-    <t>73,25</t>
-  </si>
-  <si>
-    <t>7.340,90</t>
-  </si>
-  <si>
-    <t>1.260.000,00</t>
-  </si>
-  <si>
-    <t>18.447,60</t>
-  </si>
-  <si>
-    <t>8.000,00</t>
-  </si>
-  <si>
-    <t>10.000,00</t>
-  </si>
-  <si>
-    <t>4.000,00</t>
-  </si>
-  <si>
-    <t>22.264,00</t>
-  </si>
-  <si>
-    <t>2.500,00</t>
-  </si>
-  <si>
-    <t>2.762,50</t>
-  </si>
-  <si>
-    <t>2.556,00</t>
-  </si>
-  <si>
-    <t>3.000,00</t>
-  </si>
-  <si>
-    <t>2.000,00</t>
-  </si>
-  <si>
-    <t>1.500,00</t>
-  </si>
-  <si>
-    <t>3.800,00</t>
-  </si>
-  <si>
-    <t>19.995,00</t>
-  </si>
-  <si>
-    <t>9.820,00</t>
-  </si>
-  <si>
-    <t>17.880,00</t>
-  </si>
-  <si>
-    <t>780,00</t>
-  </si>
-  <si>
-    <t>605,00</t>
-  </si>
-  <si>
-    <t>915,52</t>
-  </si>
-  <si>
-    <t>2.590,00</t>
-  </si>
-  <si>
-    <t>1.780,00</t>
-  </si>
-  <si>
-    <t>7.240,00</t>
-  </si>
-  <si>
-    <t>12.295,00</t>
-  </si>
-  <si>
-    <t>2.369,65</t>
-  </si>
-  <si>
-    <t>12.317,00</t>
-  </si>
-  <si>
-    <t>3.720,00</t>
-  </si>
-  <si>
-    <t>18.000,00</t>
-  </si>
-  <si>
-    <t>2.994,16</t>
-  </si>
-  <si>
-    <t>690,00</t>
-  </si>
-  <si>
-    <t>2.100,00</t>
-  </si>
-  <si>
-    <t>27.686,26</t>
-  </si>
-  <si>
-    <t>2.300,00</t>
-  </si>
-  <si>
-    <t>5.500,00</t>
-  </si>
-  <si>
-    <t>2.772,35</t>
-  </si>
-  <si>
-    <t>4.323,19</t>
-  </si>
-  <si>
-    <t>1.304,40</t>
-  </si>
-  <si>
-    <t>3.920,00</t>
-  </si>
-  <si>
-    <t>1.150,00</t>
-  </si>
-  <si>
-    <t>43.200,00</t>
-  </si>
-  <si>
-    <t>900,00</t>
-  </si>
-  <si>
-    <t>1.852.045,68</t>
-  </si>
-  <si>
-    <t>1.670,00</t>
-  </si>
-  <si>
-    <t>260.000,00</t>
-  </si>
-  <si>
-    <t>4.200,00</t>
-  </si>
-  <si>
-    <t>105.000,00</t>
-  </si>
-  <si>
-    <t>175.000,00</t>
-  </si>
-  <si>
-    <t>245.000,00</t>
-  </si>
-  <si>
-    <t>315.000,00</t>
-  </si>
-  <si>
-    <t>130.000,00</t>
-  </si>
-  <si>
-    <t>420.000,00</t>
-  </si>
-  <si>
-    <t>5.100,00</t>
-  </si>
-  <si>
-    <t>7.500,00</t>
-  </si>
-  <si>
-    <t>9.322,89</t>
-  </si>
-  <si>
-    <t>13.160,00</t>
-  </si>
-  <si>
-    <t>18.350,00</t>
-  </si>
-  <si>
-    <t>47.150,00</t>
-  </si>
-  <si>
-    <t>1.152,00</t>
+    <t>1800.00</t>
+  </si>
+  <si>
+    <t>13480.00</t>
+  </si>
+  <si>
+    <t>5300.00</t>
+  </si>
+  <si>
+    <t>272000.00</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>1530.40</t>
+  </si>
+  <si>
+    <t>154000.00</t>
+  </si>
+  <si>
+    <t>6874.00</t>
+  </si>
+  <si>
+    <t>8608.88</t>
+  </si>
+  <si>
+    <t>313685.39</t>
+  </si>
+  <si>
+    <t>249386.73</t>
+  </si>
+  <si>
+    <t>30066.56</t>
+  </si>
+  <si>
+    <t>19.00</t>
+  </si>
+  <si>
+    <t>154729.23</t>
+  </si>
+  <si>
+    <t>10162.50</t>
+  </si>
+  <si>
+    <t>18791.70</t>
+  </si>
+  <si>
+    <t>9539.00</t>
+  </si>
+  <si>
+    <t>13834.23</t>
+  </si>
+  <si>
+    <t>4822.00</t>
+  </si>
+  <si>
+    <t>21773.01</t>
+  </si>
+  <si>
+    <t>1000.00</t>
+  </si>
+  <si>
+    <t>553.00</t>
+  </si>
+  <si>
+    <t>11273.33</t>
+  </si>
+  <si>
+    <t>1070.00</t>
+  </si>
+  <si>
+    <t>3931.37</t>
+  </si>
+  <si>
+    <t>1781.29</t>
+  </si>
+  <si>
+    <t>1589.38</t>
+  </si>
+  <si>
+    <t>696.00</t>
+  </si>
+  <si>
+    <t>11698.59</t>
+  </si>
+  <si>
+    <t>8620.20</t>
+  </si>
+  <si>
+    <t>1760.00</t>
+  </si>
+  <si>
+    <t>4074.20</t>
+  </si>
+  <si>
+    <t>27.90</t>
+  </si>
+  <si>
+    <t>12660.00</t>
+  </si>
+  <si>
+    <t>7902.02</t>
+  </si>
+  <si>
+    <t>1258.30</t>
+  </si>
+  <si>
+    <t>4342.00</t>
+  </si>
+  <si>
+    <t>2695.00</t>
+  </si>
+  <si>
+    <t>654.70</t>
+  </si>
+  <si>
+    <t>1133.50</t>
+  </si>
+  <si>
+    <t>1940.00</t>
+  </si>
+  <si>
+    <t>15615.00</t>
+  </si>
+  <si>
+    <t>3900.00</t>
+  </si>
+  <si>
+    <t>6849.00</t>
+  </si>
+  <si>
+    <t>810.00</t>
+  </si>
+  <si>
+    <t>219948.00</t>
+  </si>
+  <si>
+    <t>3488.95</t>
+  </si>
+  <si>
+    <t>1339.50</t>
+  </si>
+  <si>
+    <t>280.00</t>
+  </si>
+  <si>
+    <t>4982.00</t>
+  </si>
+  <si>
+    <t>490.00</t>
+  </si>
+  <si>
+    <t>14700.00</t>
+  </si>
+  <si>
+    <t>5832.00</t>
+  </si>
+  <si>
+    <t>17990.00</t>
+  </si>
+  <si>
+    <t>1100.00</t>
+  </si>
+  <si>
+    <t>2130.00</t>
+  </si>
+  <si>
+    <t>11400.00</t>
+  </si>
+  <si>
+    <t>1250.00</t>
+  </si>
+  <si>
+    <t>5227.00</t>
+  </si>
+  <si>
+    <t>6000.00</t>
+  </si>
+  <si>
+    <t>9483.54</t>
+  </si>
+  <si>
+    <t>14.10</t>
+  </si>
+  <si>
+    <t>415230.93</t>
+  </si>
+  <si>
+    <t>53261.49</t>
+  </si>
+  <si>
+    <t>33150.00</t>
+  </si>
+  <si>
+    <t>15.95</t>
+  </si>
+  <si>
+    <t>59.99</t>
+  </si>
+  <si>
+    <t>2880.00</t>
+  </si>
+  <si>
+    <t>1200.00</t>
+  </si>
+  <si>
+    <t>53.00</t>
+  </si>
+  <si>
+    <t>14836.00</t>
+  </si>
+  <si>
+    <t>29985.40</t>
+  </si>
+  <si>
+    <t>29696.00</t>
+  </si>
+  <si>
+    <t>26894.00</t>
+  </si>
+  <si>
+    <t>18012.00</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>11985.40</t>
+  </si>
+  <si>
+    <t>2427.00</t>
+  </si>
+  <si>
+    <t>9184.00</t>
+  </si>
+  <si>
+    <t>30898.22</t>
+  </si>
+  <si>
+    <t>7444.90</t>
+  </si>
+  <si>
+    <t>1296.00</t>
+  </si>
+  <si>
+    <t>611.76</t>
+  </si>
+  <si>
+    <t>3410.50</t>
+  </si>
+  <si>
+    <t>2226.60</t>
+  </si>
+  <si>
+    <t>350.00</t>
+  </si>
+  <si>
+    <t>229.24</t>
+  </si>
+  <si>
+    <t>160.00</t>
+  </si>
+  <si>
+    <t>1380.00</t>
+  </si>
+  <si>
+    <t>1600.00</t>
+  </si>
+  <si>
+    <t>3124.00</t>
+  </si>
+  <si>
+    <t>22650.00</t>
+  </si>
+  <si>
+    <t>50010.00</t>
+  </si>
+  <si>
+    <t>6840.00</t>
+  </si>
+  <si>
+    <t>700.00</t>
+  </si>
+  <si>
+    <t>3500.00</t>
+  </si>
+  <si>
+    <t>60748.24</t>
+  </si>
+  <si>
+    <t>973.72</t>
+  </si>
+  <si>
+    <t>73.25</t>
+  </si>
+  <si>
+    <t>7340.90</t>
+  </si>
+  <si>
+    <t>1260000.00</t>
+  </si>
+  <si>
+    <t>18447.60</t>
+  </si>
+  <si>
+    <t>8000.00</t>
+  </si>
+  <si>
+    <t>10000.00</t>
+  </si>
+  <si>
+    <t>4000.00</t>
+  </si>
+  <si>
+    <t>22264.00</t>
+  </si>
+  <si>
+    <t>2500.00</t>
+  </si>
+  <si>
+    <t>2762.50</t>
+  </si>
+  <si>
+    <t>2556.00</t>
+  </si>
+  <si>
+    <t>3000.00</t>
+  </si>
+  <si>
+    <t>2000.00</t>
+  </si>
+  <si>
+    <t>1500.00</t>
+  </si>
+  <si>
+    <t>3800.00</t>
+  </si>
+  <si>
+    <t>19995.00</t>
+  </si>
+  <si>
+    <t>9820.00</t>
+  </si>
+  <si>
+    <t>17880.00</t>
+  </si>
+  <si>
+    <t>780.00</t>
+  </si>
+  <si>
+    <t>605.00</t>
+  </si>
+  <si>
+    <t>915.52</t>
+  </si>
+  <si>
+    <t>2590.00</t>
+  </si>
+  <si>
+    <t>1780.00</t>
+  </si>
+  <si>
+    <t>7240.00</t>
+  </si>
+  <si>
+    <t>12295.00</t>
+  </si>
+  <si>
+    <t>2369.65</t>
+  </si>
+  <si>
+    <t>12317.00</t>
+  </si>
+  <si>
+    <t>3720.00</t>
+  </si>
+  <si>
+    <t>18000.00</t>
+  </si>
+  <si>
+    <t>2994.16</t>
+  </si>
+  <si>
+    <t>690.00</t>
+  </si>
+  <si>
+    <t>2100.00</t>
+  </si>
+  <si>
+    <t>27686.26</t>
+  </si>
+  <si>
+    <t>2300.00</t>
+  </si>
+  <si>
+    <t>5500.00</t>
+  </si>
+  <si>
+    <t>2772.35</t>
+  </si>
+  <si>
+    <t>4323.19</t>
+  </si>
+  <si>
+    <t>1304.40</t>
+  </si>
+  <si>
+    <t>3920.00</t>
+  </si>
+  <si>
+    <t>1150.00</t>
+  </si>
+  <si>
+    <t>43200.00</t>
+  </si>
+  <si>
+    <t>900.00</t>
+  </si>
+  <si>
+    <t>1852045.68</t>
+  </si>
+  <si>
+    <t>1670.00</t>
+  </si>
+  <si>
+    <t>260000.00</t>
+  </si>
+  <si>
+    <t>4200.00</t>
+  </si>
+  <si>
+    <t>105000.00</t>
+  </si>
+  <si>
+    <t>175000.00</t>
+  </si>
+  <si>
+    <t>245000.00</t>
+  </si>
+  <si>
+    <t>315000.00</t>
+  </si>
+  <si>
+    <t>130000.00</t>
+  </si>
+  <si>
+    <t>420000.00</t>
+  </si>
+  <si>
+    <t>5100.00</t>
+  </si>
+  <si>
+    <t>7500.00</t>
+  </si>
+  <si>
+    <t>9322.89</t>
+  </si>
+  <si>
+    <t>13160.00</t>
+  </si>
+  <si>
+    <t>18350.00</t>
+  </si>
+  <si>
+    <t>47150.00</t>
+  </si>
+  <si>
+    <t>1152.00</t>
   </si>
 </sst>
 </file>
